--- a/plan/excel/global_全局表.xlsx
+++ b/plan/excel/global_全局表.xlsx
@@ -76,23 +76,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>enc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>#Id_Cnt</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>3|5|7|911</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -165,6 +148,10 @@
       </rPr>
       <t>loat</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>enc#id_cnt</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -191,6 +178,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -525,7 +513,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -570,7 +558,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -582,15 +570,15 @@
         <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4">
         <v>0.14000000000000001</v>
@@ -599,24 +587,24 @@
         <v>4</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -627,13 +615,13 @@
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/plan/excel/global_全局表.xlsx
+++ b/plan/excel/global_全局表.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="global" sheetId="5" r:id="rId1"/>
+    <sheet name="Global" sheetId="5" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>

--- a/plan/excel/global_全局表.xlsx
+++ b/plan/excel/global_全局表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -152,6 +152,39 @@
   </si>
   <si>
     <t>enc#id_cnt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>arr_txt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>arra</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y_string</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是数组文本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fuck|you&amp;me|dog</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -208,7 +241,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -224,7 +257,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -510,16 +543,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19.875" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="20.25" customWidth="1"/>
+    <col min="5" max="5" width="32.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -622,6 +657,23 @@
       </c>
       <c r="E6" s="1" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/plan/excel/global_全局表.xlsx
+++ b/plan/excel/global_全局表.xlsx
@@ -184,7 +184,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>fuck|you&amp;me|dog</t>
+    <t>天地不仁|以万物为|刍狗</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -553,7 +553,7 @@
   <cols>
     <col min="1" max="1" width="19.875" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="20.25" customWidth="1"/>
+    <col min="3" max="3" width="26.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.25" customWidth="1"/>
   </cols>
   <sheetData>
